--- a/Office365/Permissions/00_CreatingPermissionsHelper-PS.xlsx
+++ b/Office365/Permissions/00_CreatingPermissionsHelper-PS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\Personale\git\ImapSyncMigrationHelper\Windows\Permissions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\Personale\git\ImapSyncMigrationHelper\Office365\Permissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1E8A0-E790-4C61-9C26-337BC0F857BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42AB0F-0AE2-447B-8C45-3F253807FC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76BE234D-9BBB-44B8-8223-B7E1AA5F1F12}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,8 +477,8 @@
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("echo 'Utente,AutoMapping' &gt; ",A2,".csv")</f>
-        <v>echo 'Utente,AutoMapping' &gt; info@domain.com.csv</v>
+        <f>CONCATENATE("echo 'Delegate,AutoMapping' &gt; ",A2,".csv")</f>
+        <v>echo 'Delegate,AutoMapping' &gt; info@domain.com.csv</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE("echo '",B2,",",C2,"' &gt;&gt; ",A2,".csv")</f>
@@ -496,8 +496,8 @@
         <v>2</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE("echo 'Utente,AutoMapping' &gt; ",A3,".csv")</f>
-        <v>echo 'Utente,AutoMapping' &gt; archive.mail01@domain.com.csv</v>
+        <f>CONCATENATE("echo 'Delegate,AutoMapping' &gt; ",A3,".csv")</f>
+        <v>echo 'Delegate,AutoMapping' &gt; archive.mail01@domain.com.csv</v>
       </c>
       <c r="E3" t="str">
         <f>CONCATENATE("echo '",B3,",",C3,"' &gt;&gt; ",A3,".csv")</f>
@@ -515,8 +515,8 @@
         <v>1</v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE("echo 'Utente,AutoMapping' &gt; ",A4,".csv")</f>
-        <v>echo 'Utente,AutoMapping' &gt; archive.mail01@domain.com.csv</v>
+        <f>CONCATENATE("echo 'Delegate,AutoMapping' &gt; ",A4,".csv")</f>
+        <v>echo 'Delegate,AutoMapping' &gt; archive.mail01@domain.com.csv</v>
       </c>
       <c r="E4" t="str">
         <f>CONCATENATE("echo '",B4,",",C4,"' &gt;&gt; ",A4,".csv")</f>
